--- a/assignment-4-graphs.xlsx
+++ b/assignment-4-graphs.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
-  <workbookPr/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dylan/Dropbox/School/COMP 361/assignment_4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dylan/Dropbox/School/COMP 361/assignment_4_copyyyyyyyyyyyyyyyyyyyy/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20920" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Part2" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -318,11 +324,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="336335248"/>
-        <c:axId val="336311616"/>
+        <c:axId val="358842512"/>
+        <c:axId val="359895056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="336335248"/>
+        <c:axId val="358842512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -438,12 +444,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336311616"/>
+        <c:crossAx val="359895056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="336311616"/>
+        <c:axId val="359895056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -559,7 +565,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336335248"/>
+        <c:crossAx val="358842512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -921,11 +927,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="340636880"/>
-        <c:axId val="346163504"/>
+        <c:axId val="379903424"/>
+        <c:axId val="385759728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="340636880"/>
+        <c:axId val="379903424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,6 +1011,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1041,12 +1048,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346163504"/>
+        <c:crossAx val="385759728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="346163504"/>
+        <c:axId val="385759728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,7 +1169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340636880"/>
+        <c:crossAx val="379903424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1710,11 +1717,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="384663472"/>
-        <c:axId val="384145312"/>
+        <c:axId val="383138368"/>
+        <c:axId val="383935040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="384663472"/>
+        <c:axId val="383138368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,6 +1801,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1830,12 +1838,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384145312"/>
+        <c:crossAx val="383935040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="384145312"/>
+        <c:axId val="383935040"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1952,7 +1960,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384663472"/>
+        <c:crossAx val="383138368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4043,7 +4051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -4180,7 +4188,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4190,7 +4200,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4396,7 +4406,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4405,8 +4417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4660,7 +4672,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>